--- a/01_Informacion_Data/Bureau_Labor_of_Statistics_Data/Detroit_Warren_Dearborn.xlsx
+++ b/01_Informacion_Data/Bureau_Labor_of_Statistics_Data/Detroit_Warren_Dearborn.xlsx
@@ -17,7 +17,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H22" authorId="0">
+    <comment ref="J45" authorId="0">
       <text>
         <t xml:space="preserve">*  Preliminary.
 </t>
@@ -66,7 +66,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>2013 to 2023</t>
+    <t>1990 to 2023</t>
   </si>
   <si>
     <t>Year</t>
@@ -485,438 +485,1387 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="7">
-        <v>2013.0</v>
+        <v>1990.0</v>
       </c>
       <c r="B12" t="n" s="8">
-        <v>1805249.0</v>
+        <v>1926822.0</v>
       </c>
       <c r="C12" t="n" s="8">
-        <v>1810244.0</v>
+        <v>1925073.0</v>
       </c>
       <c r="D12" t="n" s="8">
-        <v>1819251.0</v>
+        <v>1926567.0</v>
       </c>
       <c r="E12" t="n" s="8">
-        <v>1821319.0</v>
+        <v>1922407.0</v>
       </c>
       <c r="F12" t="n" s="8">
-        <v>1845424.0</v>
+        <v>1948814.0</v>
       </c>
       <c r="G12" t="n" s="8">
-        <v>1846974.0</v>
+        <v>1967810.0</v>
       </c>
       <c r="H12" t="n" s="8">
-        <v>1857269.0</v>
+        <v>1972778.0</v>
       </c>
       <c r="I12" t="n" s="8">
-        <v>1865912.0</v>
+        <v>1974490.0</v>
       </c>
       <c r="J12" t="n" s="8">
-        <v>1869241.0</v>
+        <v>1947257.0</v>
       </c>
       <c r="K12" t="n" s="8">
-        <v>1857665.0</v>
+        <v>1948467.0</v>
       </c>
       <c r="L12" t="n" s="8">
-        <v>1857144.0</v>
+        <v>1932281.0</v>
       </c>
       <c r="M12" t="n" s="8">
-        <v>1858096.0</v>
+        <v>1933914.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="7">
-        <v>2014.0</v>
+        <v>1991.0</v>
       </c>
       <c r="B13" t="n" s="8">
-        <v>1839295.0</v>
+        <v>1885375.0</v>
       </c>
       <c r="C13" t="n" s="8">
-        <v>1838368.0</v>
+        <v>1883098.0</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>1844993.0</v>
+        <v>1885909.0</v>
       </c>
       <c r="E13" t="n" s="8">
-        <v>1835719.0</v>
+        <v>1881343.0</v>
       </c>
       <c r="F13" t="n" s="8">
-        <v>1853273.0</v>
+        <v>1888149.0</v>
       </c>
       <c r="G13" t="n" s="8">
-        <v>1863781.0</v>
+        <v>1917061.0</v>
       </c>
       <c r="H13" t="n" s="8">
-        <v>1873108.0</v>
+        <v>1930060.0</v>
       </c>
       <c r="I13" t="n" s="8">
-        <v>1875038.0</v>
+        <v>1932025.0</v>
       </c>
       <c r="J13" t="n" s="8">
-        <v>1876627.0</v>
+        <v>1922749.0</v>
       </c>
       <c r="K13" t="n" s="8">
-        <v>1888592.0</v>
+        <v>1928640.0</v>
       </c>
       <c r="L13" t="n" s="8">
-        <v>1880718.0</v>
+        <v>1921212.0</v>
       </c>
       <c r="M13" t="n" s="8">
-        <v>1882444.0</v>
+        <v>1925173.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="7">
-        <v>2015.0</v>
+        <v>1992.0</v>
       </c>
       <c r="B14" t="n" s="8">
-        <v>1860485.0</v>
+        <v>1894424.0</v>
       </c>
       <c r="C14" t="n" s="8">
-        <v>1857112.0</v>
+        <v>1899597.0</v>
       </c>
       <c r="D14" t="n" s="8">
-        <v>1864277.0</v>
+        <v>1917545.0</v>
       </c>
       <c r="E14" t="n" s="8">
-        <v>1868408.0</v>
+        <v>1921384.0</v>
       </c>
       <c r="F14" t="n" s="8">
-        <v>1891482.0</v>
+        <v>1940907.0</v>
       </c>
       <c r="G14" t="n" s="8">
-        <v>1897486.0</v>
+        <v>1965584.0</v>
       </c>
       <c r="H14" t="n" s="8">
-        <v>1909135.0</v>
+        <v>1985441.0</v>
       </c>
       <c r="I14" t="n" s="8">
-        <v>1917201.0</v>
+        <v>2000932.0</v>
       </c>
       <c r="J14" t="n" s="8">
-        <v>1917049.0</v>
+        <v>1975719.0</v>
       </c>
       <c r="K14" t="n" s="8">
-        <v>1928965.0</v>
+        <v>1979596.0</v>
       </c>
       <c r="L14" t="n" s="8">
-        <v>1932765.0</v>
+        <v>1980230.0</v>
       </c>
       <c r="M14" t="n" s="8">
-        <v>1934667.0</v>
+        <v>1986725.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="7">
-        <v>2016.0</v>
+        <v>1993.0</v>
       </c>
       <c r="B15" t="n" s="8">
-        <v>1926162.0</v>
+        <v>1938981.0</v>
       </c>
       <c r="C15" t="n" s="8">
-        <v>1935898.0</v>
+        <v>1952196.0</v>
       </c>
       <c r="D15" t="n" s="8">
-        <v>1951200.0</v>
+        <v>1963494.0</v>
       </c>
       <c r="E15" t="n" s="8">
-        <v>1948490.0</v>
+        <v>1960946.0</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>1969718.0</v>
+        <v>1990488.0</v>
       </c>
       <c r="G15" t="n" s="8">
-        <v>1971956.0</v>
+        <v>2013653.0</v>
       </c>
       <c r="H15" t="n" s="8">
-        <v>1987972.0</v>
+        <v>2026942.0</v>
       </c>
       <c r="I15" t="n" s="8">
-        <v>1992365.0</v>
+        <v>2036035.0</v>
       </c>
       <c r="J15" t="n" s="8">
-        <v>1996742.0</v>
+        <v>2014702.0</v>
       </c>
       <c r="K15" t="n" s="8">
-        <v>1998780.0</v>
+        <v>2028009.0</v>
       </c>
       <c r="L15" t="n" s="8">
-        <v>1998864.0</v>
+        <v>2023364.0</v>
       </c>
       <c r="M15" t="n" s="8">
-        <v>2000025.0</v>
+        <v>2027839.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="7">
-        <v>2017.0</v>
+        <v>1994.0</v>
       </c>
       <c r="B16" t="n" s="8">
-        <v>2003652.0</v>
+        <v>1991219.0</v>
       </c>
       <c r="C16" t="n" s="8">
-        <v>2007886.0</v>
+        <v>1995877.0</v>
       </c>
       <c r="D16" t="n" s="8">
-        <v>2028914.0</v>
+        <v>1993106.0</v>
       </c>
       <c r="E16" t="n" s="8">
-        <v>2032879.0</v>
+        <v>1994510.0</v>
       </c>
       <c r="F16" t="n" s="8">
-        <v>2040002.0</v>
+        <v>2019638.0</v>
       </c>
       <c r="G16" t="n" s="8">
-        <v>2048389.0</v>
+        <v>2032742.0</v>
       </c>
       <c r="H16" t="n" s="8">
-        <v>2060394.0</v>
+        <v>2043578.0</v>
       </c>
       <c r="I16" t="n" s="8">
-        <v>2063558.0</v>
+        <v>2063955.0</v>
       </c>
       <c r="J16" t="n" s="8">
-        <v>2067264.0</v>
+        <v>2055023.0</v>
       </c>
       <c r="K16" t="n" s="8">
-        <v>2066240.0</v>
+        <v>2070583.0</v>
       </c>
       <c r="L16" t="n" s="8">
-        <v>2063240.0</v>
+        <v>2069935.0</v>
       </c>
       <c r="M16" t="n" s="8">
-        <v>2054815.0</v>
+        <v>2071997.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="7">
-        <v>2018.0</v>
+        <v>1995.0</v>
       </c>
       <c r="B17" t="n" s="8">
-        <v>2032488.0</v>
+        <v>2025320.0</v>
       </c>
       <c r="C17" t="n" s="8">
-        <v>2045434.0</v>
+        <v>2033049.0</v>
       </c>
       <c r="D17" t="n" s="8">
-        <v>2057629.0</v>
+        <v>2033846.0</v>
       </c>
       <c r="E17" t="n" s="8">
-        <v>2056093.0</v>
+        <v>2033788.0</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>2068007.0</v>
+        <v>2054421.0</v>
       </c>
       <c r="G17" t="n" s="8">
-        <v>2075048.0</v>
+        <v>2071440.0</v>
       </c>
       <c r="H17" t="n" s="8">
-        <v>2087611.0</v>
+        <v>2092797.0</v>
       </c>
       <c r="I17" t="n" s="8">
-        <v>2085694.0</v>
+        <v>2101913.0</v>
       </c>
       <c r="J17" t="n" s="8">
-        <v>2092818.0</v>
+        <v>2083482.0</v>
       </c>
       <c r="K17" t="n" s="8">
-        <v>2102430.0</v>
+        <v>2104962.0</v>
       </c>
       <c r="L17" t="n" s="8">
-        <v>2098851.0</v>
+        <v>2098492.0</v>
       </c>
       <c r="M17" t="n" s="8">
-        <v>2099573.0</v>
+        <v>2103321.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="7">
-        <v>2019.0</v>
+        <v>1996.0</v>
       </c>
       <c r="B18" t="n" s="8">
-        <v>2075254.0</v>
+        <v>2065141.0</v>
       </c>
       <c r="C18" t="n" s="8">
-        <v>2078320.0</v>
+        <v>2088135.0</v>
       </c>
       <c r="D18" t="n" s="8">
-        <v>2084414.0</v>
+        <v>2099940.0</v>
       </c>
       <c r="E18" t="n" s="8">
-        <v>2075242.0</v>
+        <v>2090128.0</v>
       </c>
       <c r="F18" t="n" s="8">
-        <v>2078715.0</v>
+        <v>2106499.0</v>
       </c>
       <c r="G18" t="n" s="8">
-        <v>2094014.0</v>
+        <v>2123845.0</v>
       </c>
       <c r="H18" t="n" s="8">
-        <v>2116329.0</v>
+        <v>2137680.0</v>
       </c>
       <c r="I18" t="n" s="8">
-        <v>2115830.0</v>
+        <v>2143002.0</v>
       </c>
       <c r="J18" t="n" s="8">
-        <v>2116652.0</v>
+        <v>2122668.0</v>
       </c>
       <c r="K18" t="n" s="8">
-        <v>2123617.0</v>
+        <v>2140905.0</v>
       </c>
       <c r="L18" t="n" s="8">
-        <v>2110692.0</v>
+        <v>2135714.0</v>
       </c>
       <c r="M18" t="n" s="8">
-        <v>2105270.0</v>
+        <v>2133123.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="7">
-        <v>2020.0</v>
+        <v>1997.0</v>
       </c>
       <c r="B19" t="n" s="8">
-        <v>2071078.0</v>
+        <v>2084132.0</v>
       </c>
       <c r="C19" t="n" s="8">
-        <v>2069082.0</v>
+        <v>2094341.0</v>
       </c>
       <c r="D19" t="n" s="8">
-        <v>2038770.0</v>
+        <v>2110936.0</v>
       </c>
       <c r="E19" t="n" s="8">
-        <v>1467523.0</v>
+        <v>2105769.0</v>
       </c>
       <c r="F19" t="n" s="8">
-        <v>1648091.0</v>
+        <v>2131606.0</v>
       </c>
       <c r="G19" t="n" s="8">
-        <v>1758320.0</v>
+        <v>2143903.0</v>
       </c>
       <c r="H19" t="n" s="8">
-        <v>1828123.0</v>
+        <v>2164070.0</v>
       </c>
       <c r="I19" t="n" s="8">
-        <v>1894777.0</v>
+        <v>2172353.0</v>
       </c>
       <c r="J19" t="n" s="8">
-        <v>1908975.0</v>
+        <v>2156088.0</v>
       </c>
       <c r="K19" t="n" s="8">
-        <v>1956017.0</v>
+        <v>2167086.0</v>
       </c>
       <c r="L19" t="n" s="8">
-        <v>1951750.0</v>
+        <v>2174147.0</v>
       </c>
       <c r="M19" t="n" s="8">
-        <v>1906818.0</v>
+        <v>2171746.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="7">
-        <v>2021.0</v>
+        <v>1998.0</v>
       </c>
       <c r="B20" t="n" s="8">
-        <v>1927717.0</v>
+        <v>2130920.0</v>
       </c>
       <c r="C20" t="n" s="8">
-        <v>1932284.0</v>
+        <v>2144643.0</v>
       </c>
       <c r="D20" t="n" s="8">
-        <v>1954165.0</v>
+        <v>2154810.0</v>
       </c>
       <c r="E20" t="n" s="8">
-        <v>1949940.0</v>
+        <v>2153303.0</v>
       </c>
       <c r="F20" t="n" s="8">
-        <v>1956749.0</v>
+        <v>2170368.0</v>
       </c>
       <c r="G20" t="n" s="8">
-        <v>1965115.0</v>
+        <v>2182567.0</v>
       </c>
       <c r="H20" t="n" s="8">
-        <v>1990904.0</v>
+        <v>2134406.0</v>
       </c>
       <c r="I20" t="n" s="8">
-        <v>2005523.0</v>
+        <v>2194728.0</v>
       </c>
       <c r="J20" t="n" s="8">
-        <v>2012129.0</v>
+        <v>2187417.0</v>
       </c>
       <c r="K20" t="n" s="8">
-        <v>2029259.0</v>
+        <v>2203034.0</v>
       </c>
       <c r="L20" t="n" s="8">
-        <v>2038790.0</v>
+        <v>2205717.0</v>
       </c>
       <c r="M20" t="n" s="8">
-        <v>2034615.0</v>
+        <v>2210407.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="7">
-        <v>2022.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B21" t="n" s="8">
-        <v>2009148.0</v>
+        <v>2176325.0</v>
       </c>
       <c r="C21" t="n" s="8">
-        <v>2011995.0</v>
+        <v>2181836.0</v>
       </c>
       <c r="D21" t="n" s="8">
-        <v>2030561.0</v>
+        <v>2198990.0</v>
       </c>
       <c r="E21" t="n" s="8">
-        <v>2014751.0</v>
+        <v>2196638.0</v>
       </c>
       <c r="F21" t="n" s="8">
-        <v>2016847.0</v>
+        <v>2225120.0</v>
       </c>
       <c r="G21" t="n" s="8">
-        <v>2027662.0</v>
+        <v>2238918.0</v>
       </c>
       <c r="H21" t="n" s="8">
-        <v>2043249.0</v>
+        <v>2245475.0</v>
       </c>
       <c r="I21" t="n" s="8">
-        <v>2048596.0</v>
+        <v>2254727.0</v>
       </c>
       <c r="J21" t="n" s="8">
-        <v>2043709.0</v>
+        <v>2234414.0</v>
       </c>
       <c r="K21" t="n" s="8">
-        <v>2046974.0</v>
+        <v>2251072.0</v>
       </c>
       <c r="L21" t="n" s="8">
-        <v>2036277.0</v>
+        <v>2252143.0</v>
       </c>
       <c r="M21" t="n" s="8">
-        <v>2042604.0</v>
+        <v>2257041.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="7">
+        <v>2000.0</v>
+      </c>
+      <c r="B22" t="n" s="8">
+        <v>2226623.0</v>
+      </c>
+      <c r="C22" t="n" s="8">
+        <v>2226933.0</v>
+      </c>
+      <c r="D22" t="n" s="8">
+        <v>2222084.0</v>
+      </c>
+      <c r="E22" t="n" s="8">
+        <v>2217992.0</v>
+      </c>
+      <c r="F22" t="n" s="8">
+        <v>2214696.0</v>
+      </c>
+      <c r="G22" t="n" s="8">
+        <v>2234117.0</v>
+      </c>
+      <c r="H22" t="n" s="8">
+        <v>2225844.0</v>
+      </c>
+      <c r="I22" t="n" s="8">
+        <v>2223588.0</v>
+      </c>
+      <c r="J22" t="n" s="8">
+        <v>2201183.0</v>
+      </c>
+      <c r="K22" t="n" s="8">
+        <v>2210639.0</v>
+      </c>
+      <c r="L22" t="n" s="8">
+        <v>2202151.0</v>
+      </c>
+      <c r="M22" t="n" s="8">
+        <v>2206125.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="7">
+        <v>2001.0</v>
+      </c>
+      <c r="B23" t="n" s="8">
+        <v>2160080.0</v>
+      </c>
+      <c r="C23" t="n" s="8">
+        <v>2160766.0</v>
+      </c>
+      <c r="D23" t="n" s="8">
+        <v>2160552.0</v>
+      </c>
+      <c r="E23" t="n" s="8">
+        <v>2137631.0</v>
+      </c>
+      <c r="F23" t="n" s="8">
+        <v>2141586.0</v>
+      </c>
+      <c r="G23" t="n" s="8">
+        <v>2150211.0</v>
+      </c>
+      <c r="H23" t="n" s="8">
+        <v>2155753.0</v>
+      </c>
+      <c r="I23" t="n" s="8">
+        <v>2138572.0</v>
+      </c>
+      <c r="J23" t="n" s="8">
+        <v>2127902.0</v>
+      </c>
+      <c r="K23" t="n" s="8">
+        <v>2129706.0</v>
+      </c>
+      <c r="L23" t="n" s="8">
+        <v>2115108.0</v>
+      </c>
+      <c r="M23" t="n" s="8">
+        <v>2115258.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="7">
+        <v>2002.0</v>
+      </c>
+      <c r="B24" t="n" s="8">
+        <v>2063009.0</v>
+      </c>
+      <c r="C24" t="n" s="8">
+        <v>2074764.0</v>
+      </c>
+      <c r="D24" t="n" s="8">
+        <v>2068583.0</v>
+      </c>
+      <c r="E24" t="n" s="8">
+        <v>2061024.0</v>
+      </c>
+      <c r="F24" t="n" s="8">
+        <v>2075423.0</v>
+      </c>
+      <c r="G24" t="n" s="8">
+        <v>2081037.0</v>
+      </c>
+      <c r="H24" t="n" s="8">
+        <v>2087126.0</v>
+      </c>
+      <c r="I24" t="n" s="8">
+        <v>2098307.0</v>
+      </c>
+      <c r="J24" t="n" s="8">
+        <v>2100600.0</v>
+      </c>
+      <c r="K24" t="n" s="8">
+        <v>2108721.0</v>
+      </c>
+      <c r="L24" t="n" s="8">
+        <v>2090619.0</v>
+      </c>
+      <c r="M24" t="n" s="8">
+        <v>2085837.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="7">
+        <v>2003.0</v>
+      </c>
+      <c r="B25" t="n" s="8">
+        <v>2048682.0</v>
+      </c>
+      <c r="C25" t="n" s="8">
+        <v>2053158.0</v>
+      </c>
+      <c r="D25" t="n" s="8">
+        <v>2049563.0</v>
+      </c>
+      <c r="E25" t="n" s="8">
+        <v>2039798.0</v>
+      </c>
+      <c r="F25" t="n" s="8">
+        <v>2047011.0</v>
+      </c>
+      <c r="G25" t="n" s="8">
+        <v>2059984.0</v>
+      </c>
+      <c r="H25" t="n" s="8">
+        <v>2053273.0</v>
+      </c>
+      <c r="I25" t="n" s="8">
+        <v>2058723.0</v>
+      </c>
+      <c r="J25" t="n" s="8">
+        <v>2049830.0</v>
+      </c>
+      <c r="K25" t="n" s="8">
+        <v>2066602.0</v>
+      </c>
+      <c r="L25" t="n" s="8">
+        <v>2067005.0</v>
+      </c>
+      <c r="M25" t="n" s="8">
+        <v>2061246.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="7">
+        <v>2004.0</v>
+      </c>
+      <c r="B26" t="n" s="8">
+        <v>2031431.0</v>
+      </c>
+      <c r="C26" t="n" s="8">
+        <v>2035850.0</v>
+      </c>
+      <c r="D26" t="n" s="8">
+        <v>2032307.0</v>
+      </c>
+      <c r="E26" t="n" s="8">
+        <v>2026905.0</v>
+      </c>
+      <c r="F26" t="n" s="8">
+        <v>2038121.0</v>
+      </c>
+      <c r="G26" t="n" s="8">
+        <v>2045780.0</v>
+      </c>
+      <c r="H26" t="n" s="8">
+        <v>2051935.0</v>
+      </c>
+      <c r="I26" t="n" s="8">
+        <v>2060671.0</v>
+      </c>
+      <c r="J26" t="n" s="8">
+        <v>2050448.0</v>
+      </c>
+      <c r="K26" t="n" s="8">
+        <v>2067179.0</v>
+      </c>
+      <c r="L26" t="n" s="8">
+        <v>2057825.0</v>
+      </c>
+      <c r="M26" t="n" s="8">
+        <v>2051859.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="7">
+        <v>2005.0</v>
+      </c>
+      <c r="B27" t="n" s="8">
+        <v>2006886.0</v>
+      </c>
+      <c r="C27" t="n" s="8">
+        <v>2008883.0</v>
+      </c>
+      <c r="D27" t="n" s="8">
+        <v>2011267.0</v>
+      </c>
+      <c r="E27" t="n" s="8">
+        <v>2017154.0</v>
+      </c>
+      <c r="F27" t="n" s="8">
+        <v>2037026.0</v>
+      </c>
+      <c r="G27" t="n" s="8">
+        <v>2045543.0</v>
+      </c>
+      <c r="H27" t="n" s="8">
+        <v>2052712.0</v>
+      </c>
+      <c r="I27" t="n" s="8">
+        <v>2068856.0</v>
+      </c>
+      <c r="J27" t="n" s="8">
+        <v>2053622.0</v>
+      </c>
+      <c r="K27" t="n" s="8">
+        <v>2059368.0</v>
+      </c>
+      <c r="L27" t="n" s="8">
+        <v>2044787.0</v>
+      </c>
+      <c r="M27" t="n" s="8">
+        <v>2038836.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="7">
+        <v>2006.0</v>
+      </c>
+      <c r="B28" t="n" s="8">
+        <v>1995795.0</v>
+      </c>
+      <c r="C28" t="n" s="8">
+        <v>1996752.0</v>
+      </c>
+      <c r="D28" t="n" s="8">
+        <v>2001914.0</v>
+      </c>
+      <c r="E28" t="n" s="8">
+        <v>1999272.0</v>
+      </c>
+      <c r="F28" t="n" s="8">
+        <v>2014512.0</v>
+      </c>
+      <c r="G28" t="n" s="8">
+        <v>2023247.0</v>
+      </c>
+      <c r="H28" t="n" s="8">
+        <v>2021376.0</v>
+      </c>
+      <c r="I28" t="n" s="8">
+        <v>2033087.0</v>
+      </c>
+      <c r="J28" t="n" s="8">
+        <v>2023420.0</v>
+      </c>
+      <c r="K28" t="n" s="8">
+        <v>2040279.0</v>
+      </c>
+      <c r="L28" t="n" s="8">
+        <v>2029170.0</v>
+      </c>
+      <c r="M28" t="n" s="8">
+        <v>2026426.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="7">
+        <v>2007.0</v>
+      </c>
+      <c r="B29" t="n" s="8">
+        <v>1984685.0</v>
+      </c>
+      <c r="C29" t="n" s="8">
+        <v>1986332.0</v>
+      </c>
+      <c r="D29" t="n" s="8">
+        <v>1990625.0</v>
+      </c>
+      <c r="E29" t="n" s="8">
+        <v>1966640.0</v>
+      </c>
+      <c r="F29" t="n" s="8">
+        <v>1983513.0</v>
+      </c>
+      <c r="G29" t="n" s="8">
+        <v>1991427.0</v>
+      </c>
+      <c r="H29" t="n" s="8">
+        <v>1996285.0</v>
+      </c>
+      <c r="I29" t="n" s="8">
+        <v>1986800.0</v>
+      </c>
+      <c r="J29" t="n" s="8">
+        <v>1982594.0</v>
+      </c>
+      <c r="K29" t="n" s="8">
+        <v>1980943.0</v>
+      </c>
+      <c r="L29" t="n" s="8">
+        <v>1981843.0</v>
+      </c>
+      <c r="M29" t="n" s="8">
+        <v>1969298.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="7">
+        <v>2008.0</v>
+      </c>
+      <c r="B30" t="n" s="8">
+        <v>1940758.0</v>
+      </c>
+      <c r="C30" t="n" s="8">
+        <v>1933595.0</v>
+      </c>
+      <c r="D30" t="n" s="8">
+        <v>1934386.0</v>
+      </c>
+      <c r="E30" t="n" s="8">
+        <v>1923672.0</v>
+      </c>
+      <c r="F30" t="n" s="8">
+        <v>1930096.0</v>
+      </c>
+      <c r="G30" t="n" s="8">
+        <v>1940264.0</v>
+      </c>
+      <c r="H30" t="n" s="8">
+        <v>1938667.0</v>
+      </c>
+      <c r="I30" t="n" s="8">
+        <v>1936492.0</v>
+      </c>
+      <c r="J30" t="n" s="8">
+        <v>1920491.0</v>
+      </c>
+      <c r="K30" t="n" s="8">
+        <v>1913321.0</v>
+      </c>
+      <c r="L30" t="n" s="8">
+        <v>1884684.0</v>
+      </c>
+      <c r="M30" t="n" s="8">
+        <v>1859151.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="7">
+        <v>2009.0</v>
+      </c>
+      <c r="B31" t="n" s="8">
+        <v>1809190.0</v>
+      </c>
+      <c r="C31" t="n" s="8">
+        <v>1800340.0</v>
+      </c>
+      <c r="D31" t="n" s="8">
+        <v>1792533.0</v>
+      </c>
+      <c r="E31" t="n" s="8">
+        <v>1789860.0</v>
+      </c>
+      <c r="F31" t="n" s="8">
+        <v>1785170.0</v>
+      </c>
+      <c r="G31" t="n" s="8">
+        <v>1779358.0</v>
+      </c>
+      <c r="H31" t="n" s="8">
+        <v>1786861.0</v>
+      </c>
+      <c r="I31" t="n" s="8">
+        <v>1789674.0</v>
+      </c>
+      <c r="J31" t="n" s="8">
+        <v>1774000.0</v>
+      </c>
+      <c r="K31" t="n" s="8">
+        <v>1778149.0</v>
+      </c>
+      <c r="L31" t="n" s="8">
+        <v>1776140.0</v>
+      </c>
+      <c r="M31" t="n" s="8">
+        <v>1765580.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="7">
+        <v>2010.0</v>
+      </c>
+      <c r="B32" t="n" s="8">
+        <v>1744145.0</v>
+      </c>
+      <c r="C32" t="n" s="8">
+        <v>1744615.0</v>
+      </c>
+      <c r="D32" t="n" s="8">
+        <v>1751580.0</v>
+      </c>
+      <c r="E32" t="n" s="8">
+        <v>1762322.0</v>
+      </c>
+      <c r="F32" t="n" s="8">
+        <v>1774874.0</v>
+      </c>
+      <c r="G32" t="n" s="8">
+        <v>1772373.0</v>
+      </c>
+      <c r="H32" t="n" s="8">
+        <v>1779222.0</v>
+      </c>
+      <c r="I32" t="n" s="8">
+        <v>1786554.0</v>
+      </c>
+      <c r="J32" t="n" s="8">
+        <v>1784697.0</v>
+      </c>
+      <c r="K32" t="n" s="8">
+        <v>1779695.0</v>
+      </c>
+      <c r="L32" t="n" s="8">
+        <v>1770214.0</v>
+      </c>
+      <c r="M32" t="n" s="8">
+        <v>1764507.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="7">
+        <v>2011.0</v>
+      </c>
+      <c r="B33" t="n" s="8">
+        <v>1738170.0</v>
+      </c>
+      <c r="C33" t="n" s="8">
+        <v>1734484.0</v>
+      </c>
+      <c r="D33" t="n" s="8">
+        <v>1748554.0</v>
+      </c>
+      <c r="E33" t="n" s="8">
+        <v>1744723.0</v>
+      </c>
+      <c r="F33" t="n" s="8">
+        <v>1765398.0</v>
+      </c>
+      <c r="G33" t="n" s="8">
+        <v>1765492.0</v>
+      </c>
+      <c r="H33" t="n" s="8">
+        <v>1772369.0</v>
+      </c>
+      <c r="I33" t="n" s="8">
+        <v>1792342.0</v>
+      </c>
+      <c r="J33" t="n" s="8">
+        <v>1799409.0</v>
+      </c>
+      <c r="K33" t="n" s="8">
+        <v>1808544.0</v>
+      </c>
+      <c r="L33" t="n" s="8">
+        <v>1808493.0</v>
+      </c>
+      <c r="M33" t="n" s="8">
+        <v>1807408.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="7">
+        <v>2012.0</v>
+      </c>
+      <c r="B34" t="n" s="8">
+        <v>1780760.0</v>
+      </c>
+      <c r="C34" t="n" s="8">
+        <v>1784193.0</v>
+      </c>
+      <c r="D34" t="n" s="8">
+        <v>1790831.0</v>
+      </c>
+      <c r="E34" t="n" s="8">
+        <v>1783452.0</v>
+      </c>
+      <c r="F34" t="n" s="8">
+        <v>1801377.0</v>
+      </c>
+      <c r="G34" t="n" s="8">
+        <v>1807355.0</v>
+      </c>
+      <c r="H34" t="n" s="8">
+        <v>1813877.0</v>
+      </c>
+      <c r="I34" t="n" s="8">
+        <v>1820822.0</v>
+      </c>
+      <c r="J34" t="n" s="8">
+        <v>1830984.0</v>
+      </c>
+      <c r="K34" t="n" s="8">
+        <v>1839574.0</v>
+      </c>
+      <c r="L34" t="n" s="8">
+        <v>1829803.0</v>
+      </c>
+      <c r="M34" t="n" s="8">
+        <v>1829243.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="7">
+        <v>2013.0</v>
+      </c>
+      <c r="B35" t="n" s="8">
+        <v>1805249.0</v>
+      </c>
+      <c r="C35" t="n" s="8">
+        <v>1810244.0</v>
+      </c>
+      <c r="D35" t="n" s="8">
+        <v>1819251.0</v>
+      </c>
+      <c r="E35" t="n" s="8">
+        <v>1821319.0</v>
+      </c>
+      <c r="F35" t="n" s="8">
+        <v>1845424.0</v>
+      </c>
+      <c r="G35" t="n" s="8">
+        <v>1846974.0</v>
+      </c>
+      <c r="H35" t="n" s="8">
+        <v>1857269.0</v>
+      </c>
+      <c r="I35" t="n" s="8">
+        <v>1865912.0</v>
+      </c>
+      <c r="J35" t="n" s="8">
+        <v>1869241.0</v>
+      </c>
+      <c r="K35" t="n" s="8">
+        <v>1857665.0</v>
+      </c>
+      <c r="L35" t="n" s="8">
+        <v>1857144.0</v>
+      </c>
+      <c r="M35" t="n" s="8">
+        <v>1858096.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="7">
+        <v>2014.0</v>
+      </c>
+      <c r="B36" t="n" s="8">
+        <v>1839295.0</v>
+      </c>
+      <c r="C36" t="n" s="8">
+        <v>1838368.0</v>
+      </c>
+      <c r="D36" t="n" s="8">
+        <v>1844993.0</v>
+      </c>
+      <c r="E36" t="n" s="8">
+        <v>1835719.0</v>
+      </c>
+      <c r="F36" t="n" s="8">
+        <v>1853273.0</v>
+      </c>
+      <c r="G36" t="n" s="8">
+        <v>1863781.0</v>
+      </c>
+      <c r="H36" t="n" s="8">
+        <v>1873108.0</v>
+      </c>
+      <c r="I36" t="n" s="8">
+        <v>1875038.0</v>
+      </c>
+      <c r="J36" t="n" s="8">
+        <v>1876627.0</v>
+      </c>
+      <c r="K36" t="n" s="8">
+        <v>1888592.0</v>
+      </c>
+      <c r="L36" t="n" s="8">
+        <v>1880718.0</v>
+      </c>
+      <c r="M36" t="n" s="8">
+        <v>1882444.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="7">
+        <v>2015.0</v>
+      </c>
+      <c r="B37" t="n" s="8">
+        <v>1860485.0</v>
+      </c>
+      <c r="C37" t="n" s="8">
+        <v>1857112.0</v>
+      </c>
+      <c r="D37" t="n" s="8">
+        <v>1864277.0</v>
+      </c>
+      <c r="E37" t="n" s="8">
+        <v>1868408.0</v>
+      </c>
+      <c r="F37" t="n" s="8">
+        <v>1891482.0</v>
+      </c>
+      <c r="G37" t="n" s="8">
+        <v>1897486.0</v>
+      </c>
+      <c r="H37" t="n" s="8">
+        <v>1909135.0</v>
+      </c>
+      <c r="I37" t="n" s="8">
+        <v>1917201.0</v>
+      </c>
+      <c r="J37" t="n" s="8">
+        <v>1917049.0</v>
+      </c>
+      <c r="K37" t="n" s="8">
+        <v>1928965.0</v>
+      </c>
+      <c r="L37" t="n" s="8">
+        <v>1932765.0</v>
+      </c>
+      <c r="M37" t="n" s="8">
+        <v>1934667.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="7">
+        <v>2016.0</v>
+      </c>
+      <c r="B38" t="n" s="8">
+        <v>1926162.0</v>
+      </c>
+      <c r="C38" t="n" s="8">
+        <v>1935898.0</v>
+      </c>
+      <c r="D38" t="n" s="8">
+        <v>1951200.0</v>
+      </c>
+      <c r="E38" t="n" s="8">
+        <v>1948490.0</v>
+      </c>
+      <c r="F38" t="n" s="8">
+        <v>1969718.0</v>
+      </c>
+      <c r="G38" t="n" s="8">
+        <v>1971956.0</v>
+      </c>
+      <c r="H38" t="n" s="8">
+        <v>1987972.0</v>
+      </c>
+      <c r="I38" t="n" s="8">
+        <v>1992365.0</v>
+      </c>
+      <c r="J38" t="n" s="8">
+        <v>1996742.0</v>
+      </c>
+      <c r="K38" t="n" s="8">
+        <v>1998780.0</v>
+      </c>
+      <c r="L38" t="n" s="8">
+        <v>1998864.0</v>
+      </c>
+      <c r="M38" t="n" s="8">
+        <v>2000025.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="7">
+        <v>2017.0</v>
+      </c>
+      <c r="B39" t="n" s="8">
+        <v>2003652.0</v>
+      </c>
+      <c r="C39" t="n" s="8">
+        <v>2007886.0</v>
+      </c>
+      <c r="D39" t="n" s="8">
+        <v>2028914.0</v>
+      </c>
+      <c r="E39" t="n" s="8">
+        <v>2032879.0</v>
+      </c>
+      <c r="F39" t="n" s="8">
+        <v>2040002.0</v>
+      </c>
+      <c r="G39" t="n" s="8">
+        <v>2048389.0</v>
+      </c>
+      <c r="H39" t="n" s="8">
+        <v>2060394.0</v>
+      </c>
+      <c r="I39" t="n" s="8">
+        <v>2063558.0</v>
+      </c>
+      <c r="J39" t="n" s="8">
+        <v>2067264.0</v>
+      </c>
+      <c r="K39" t="n" s="8">
+        <v>2066240.0</v>
+      </c>
+      <c r="L39" t="n" s="8">
+        <v>2063240.0</v>
+      </c>
+      <c r="M39" t="n" s="8">
+        <v>2054815.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="7">
+        <v>2018.0</v>
+      </c>
+      <c r="B40" t="n" s="8">
+        <v>2032488.0</v>
+      </c>
+      <c r="C40" t="n" s="8">
+        <v>2045434.0</v>
+      </c>
+      <c r="D40" t="n" s="8">
+        <v>2057629.0</v>
+      </c>
+      <c r="E40" t="n" s="8">
+        <v>2056093.0</v>
+      </c>
+      <c r="F40" t="n" s="8">
+        <v>2068007.0</v>
+      </c>
+      <c r="G40" t="n" s="8">
+        <v>2075048.0</v>
+      </c>
+      <c r="H40" t="n" s="8">
+        <v>2087611.0</v>
+      </c>
+      <c r="I40" t="n" s="8">
+        <v>2085694.0</v>
+      </c>
+      <c r="J40" t="n" s="8">
+        <v>2092818.0</v>
+      </c>
+      <c r="K40" t="n" s="8">
+        <v>2102430.0</v>
+      </c>
+      <c r="L40" t="n" s="8">
+        <v>2098851.0</v>
+      </c>
+      <c r="M40" t="n" s="8">
+        <v>2099573.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="7">
+        <v>2019.0</v>
+      </c>
+      <c r="B41" t="n" s="8">
+        <v>2075254.0</v>
+      </c>
+      <c r="C41" t="n" s="8">
+        <v>2078320.0</v>
+      </c>
+      <c r="D41" t="n" s="8">
+        <v>2084414.0</v>
+      </c>
+      <c r="E41" t="n" s="8">
+        <v>2075242.0</v>
+      </c>
+      <c r="F41" t="n" s="8">
+        <v>2078715.0</v>
+      </c>
+      <c r="G41" t="n" s="8">
+        <v>2094014.0</v>
+      </c>
+      <c r="H41" t="n" s="8">
+        <v>2116329.0</v>
+      </c>
+      <c r="I41" t="n" s="8">
+        <v>2115830.0</v>
+      </c>
+      <c r="J41" t="n" s="8">
+        <v>2116652.0</v>
+      </c>
+      <c r="K41" t="n" s="8">
+        <v>2123617.0</v>
+      </c>
+      <c r="L41" t="n" s="8">
+        <v>2110692.0</v>
+      </c>
+      <c r="M41" t="n" s="8">
+        <v>2105270.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="B42" t="n" s="8">
+        <v>2071078.0</v>
+      </c>
+      <c r="C42" t="n" s="8">
+        <v>2069082.0</v>
+      </c>
+      <c r="D42" t="n" s="8">
+        <v>2038770.0</v>
+      </c>
+      <c r="E42" t="n" s="8">
+        <v>1467523.0</v>
+      </c>
+      <c r="F42" t="n" s="8">
+        <v>1648091.0</v>
+      </c>
+      <c r="G42" t="n" s="8">
+        <v>1758320.0</v>
+      </c>
+      <c r="H42" t="n" s="8">
+        <v>1828123.0</v>
+      </c>
+      <c r="I42" t="n" s="8">
+        <v>1894777.0</v>
+      </c>
+      <c r="J42" t="n" s="8">
+        <v>1908975.0</v>
+      </c>
+      <c r="K42" t="n" s="8">
+        <v>1956017.0</v>
+      </c>
+      <c r="L42" t="n" s="8">
+        <v>1951750.0</v>
+      </c>
+      <c r="M42" t="n" s="8">
+        <v>1906818.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="7">
+        <v>2021.0</v>
+      </c>
+      <c r="B43" t="n" s="8">
+        <v>1927717.0</v>
+      </c>
+      <c r="C43" t="n" s="8">
+        <v>1932284.0</v>
+      </c>
+      <c r="D43" t="n" s="8">
+        <v>1954165.0</v>
+      </c>
+      <c r="E43" t="n" s="8">
+        <v>1949940.0</v>
+      </c>
+      <c r="F43" t="n" s="8">
+        <v>1956749.0</v>
+      </c>
+      <c r="G43" t="n" s="8">
+        <v>1965115.0</v>
+      </c>
+      <c r="H43" t="n" s="8">
+        <v>1990904.0</v>
+      </c>
+      <c r="I43" t="n" s="8">
+        <v>2005523.0</v>
+      </c>
+      <c r="J43" t="n" s="8">
+        <v>2012129.0</v>
+      </c>
+      <c r="K43" t="n" s="8">
+        <v>2029259.0</v>
+      </c>
+      <c r="L43" t="n" s="8">
+        <v>2038790.0</v>
+      </c>
+      <c r="M43" t="n" s="8">
+        <v>2034615.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="7">
+        <v>2022.0</v>
+      </c>
+      <c r="B44" t="n" s="8">
+        <v>2009148.0</v>
+      </c>
+      <c r="C44" t="n" s="8">
+        <v>2011995.0</v>
+      </c>
+      <c r="D44" t="n" s="8">
+        <v>2030561.0</v>
+      </c>
+      <c r="E44" t="n" s="8">
+        <v>2014751.0</v>
+      </c>
+      <c r="F44" t="n" s="8">
+        <v>2016847.0</v>
+      </c>
+      <c r="G44" t="n" s="8">
+        <v>2027662.0</v>
+      </c>
+      <c r="H44" t="n" s="8">
+        <v>2043249.0</v>
+      </c>
+      <c r="I44" t="n" s="8">
+        <v>2048596.0</v>
+      </c>
+      <c r="J44" t="n" s="8">
+        <v>2043709.0</v>
+      </c>
+      <c r="K44" t="n" s="8">
+        <v>2046974.0</v>
+      </c>
+      <c r="L44" t="n" s="8">
+        <v>2036277.0</v>
+      </c>
+      <c r="M44" t="n" s="8">
+        <v>2042604.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B22" t="n" s="8">
+      <c r="B45" t="n" s="8">
         <v>1999909.0</v>
       </c>
-      <c r="C22" t="n" s="8">
+      <c r="C45" t="n" s="8">
         <v>2010844.0</v>
       </c>
-      <c r="D22" t="n" s="8">
+      <c r="D45" t="n" s="8">
         <v>2057717.0</v>
       </c>
-      <c r="E22" t="n" s="8">
+      <c r="E45" t="n" s="8">
         <v>2051542.0</v>
       </c>
-      <c r="F22" t="n" s="8">
+      <c r="F45" t="n" s="8">
         <v>2053018.0</v>
       </c>
-      <c r="G22" t="n" s="8">
+      <c r="G45" t="n" s="8">
         <v>2071851.0</v>
       </c>
-      <c r="H22" t="n" s="8">
-        <v>2101373.0</v>
+      <c r="H45" t="n" s="8">
+        <v>2100451.0</v>
+      </c>
+      <c r="I45" t="n" s="8">
+        <v>2121817.0</v>
+      </c>
+      <c r="J45" t="n" s="8">
+        <v>2137122.0</v>
       </c>
     </row>
     <row r="10000"/>
@@ -936,7 +1885,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: September 12, 2023 (09:00:12 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: November 1, 2023 (09:46:55 AM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
